--- a/output/1Y_P76_1VAL-D.xlsx
+++ b/output/1Y_P76_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G2" s="1">
-        <v>558.9184</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1883</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8917</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1883</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E3" s="1">
+        <v>558.9184</v>
+      </c>
       <c r="F3" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G3" s="1">
-        <v>1174.1478</v>
-      </c>
       <c r="H3" s="1">
-        <v>18985.7346</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0336</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.8917</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>251.5133</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9748.486699999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>251.5133</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19237.2479</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0356</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E4" s="1">
+        <v>1174.1478</v>
+      </c>
       <c r="F4" s="1">
-        <v>648.6713999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1822.8192</v>
+        <v>647.044</v>
       </c>
       <c r="H4" s="1">
-        <v>28025.2976</v>
+        <v>18052.1697</v>
       </c>
       <c r="I4" s="1">
-        <v>30025.1513</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4718</v>
+        <v>18052.1697</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0336</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>226.3619</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28251.6595</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0337</v>
+        <v>-0.0518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E5" s="1">
+        <v>1821.1917</v>
+      </c>
       <c r="F5" s="1">
-        <v>641.8849</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2464.7041</v>
+        <v>640.2745</v>
       </c>
       <c r="H5" s="1">
-        <v>38294.8466</v>
+        <v>28296.4026</v>
       </c>
       <c r="I5" s="1">
-        <v>40050.3027</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2495</v>
+        <v>28296.4026</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.4727</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>201.2106</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38496.0573</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0064</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E6" s="1">
+        <v>2461.4663</v>
+      </c>
       <c r="F6" s="1">
-        <v>624.5189</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3089.2229</v>
+        <v>622.952</v>
       </c>
       <c r="H6" s="1">
-        <v>49332.7277</v>
+        <v>39307.8938</v>
       </c>
       <c r="I6" s="1">
-        <v>50075.454</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2097</v>
+        <v>39307.8938</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2505</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>176.0593</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49508.787</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0209</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E7" s="1">
+        <v>3084.4183</v>
+      </c>
       <c r="F7" s="1">
-        <v>636.2671</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3725.49</v>
+        <v>634.6708</v>
       </c>
       <c r="H7" s="1">
-        <v>58395.1931</v>
+        <v>48346.7153</v>
       </c>
       <c r="I7" s="1">
-        <v>60100.6053</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.1323</v>
+        <v>48346.7153</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2105</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>150.908</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58546.1011</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0162</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E8" s="1">
+        <v>3719.0891</v>
+      </c>
       <c r="F8" s="1">
-        <v>652.6579</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4378.1479</v>
+        <v>651.0205</v>
       </c>
       <c r="H8" s="1">
-        <v>66901.60219999999</v>
+        <v>56830.6573</v>
       </c>
       <c r="I8" s="1">
-        <v>70125.75659999999</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0172</v>
+        <v>56830.6573</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.133</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>125.7566</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67027.3588</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0222</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E9" s="1">
+        <v>4370.1096</v>
+      </c>
       <c r="F9" s="1">
-        <v>656.1135</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5034.2613</v>
+        <v>654.4674</v>
       </c>
       <c r="H9" s="1">
-        <v>76522.2828</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80150.908</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9211</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0179</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>100.6053</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76622.8881</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E10" s="1">
+        <v>5024.577</v>
+      </c>
       <c r="F10" s="1">
-        <v>650.8909</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5685.1522</v>
+        <v>649.2578999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>87109.6078</v>
+        <v>76988.0763</v>
       </c>
       <c r="I10" s="1">
-        <v>90176.05929999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8617</v>
+        <v>76988.0763</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>75.45399999999999</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87185.0618</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.042</v>
       </c>
+      <c r="E11" s="1">
+        <v>5673.8349</v>
+      </c>
       <c r="F11" s="1">
-        <v>624.9315</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6310.0837</v>
+        <v>623.3637</v>
       </c>
       <c r="H11" s="1">
-        <v>100701.9952</v>
+        <v>90548.1639</v>
       </c>
       <c r="I11" s="1">
-        <v>100201.2106</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8795</v>
+        <v>90548.1639</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8623</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>50.3027</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100752.2979</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0367</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E12" s="1">
+        <v>6297.1986</v>
+      </c>
       <c r="F12" s="1">
-        <v>632.7332</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6942.8169</v>
+        <v>631.1458</v>
       </c>
       <c r="H12" s="1">
-        <v>109432.6804</v>
+        <v>99256.444</v>
       </c>
       <c r="I12" s="1">
-        <v>110226.3619</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8763</v>
+        <v>99256.444</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8801</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>25.1513</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109457.8317</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E13" s="1">
+        <v>6928.3444</v>
+      </c>
       <c r="F13" s="1">
-        <v>627.7136</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7570.5305</v>
+        <v>626.1387999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>120280.5892</v>
+        <v>110077.5352</v>
       </c>
       <c r="I13" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8842</v>
+        <v>110077.5352</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8768</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10025.1513</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120280.5892</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.743</v>
       </c>
+      <c r="E14" s="1">
+        <v>7554.4831</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7570.5305</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6928.3444</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125828.9822</v>
       </c>
       <c r="I14" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8842</v>
+        <v>125828.9822</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5609</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126096.2708</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126096.2708</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126096.2708</v>
+        <v>115399.8893</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0321</v>
+        <v>0.0479</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.8917</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>558.9184</v>
       </c>
       <c r="G2" s="1">
-        <v>558.9184</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1883</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8917</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1883</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.2541</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>558.9184</v>
       </c>
       <c r="F3" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1174.1478</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>18985.7346</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0336</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.8917</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>251.5133</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9748.486699999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>251.5133</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19237.2479</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0356</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.4549</v>
       </c>
       <c r="E4" s="1">
+        <v>1174.1478</v>
+      </c>
+      <c r="F4" s="1">
+        <v>647.044</v>
+      </c>
+      <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
-        <v>663.318</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1837.4658</v>
-      </c>
       <c r="H4" s="1">
-        <v>28250.4849</v>
+        <v>18052.1697</v>
       </c>
       <c r="I4" s="1">
-        <v>30251.5133</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4637</v>
+        <v>18052.1697</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0336</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10251.5133</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28250.4849</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0338</v>
+        <v>-0.0518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.6183</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1821.1917</v>
       </c>
       <c r="F5" s="1">
         <v>640.2745</v>
       </c>
       <c r="G5" s="1">
-        <v>2477.7403</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38497.3946</v>
+        <v>28296.4026</v>
       </c>
       <c r="I5" s="1">
-        <v>40251.5133</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2453</v>
+        <v>28296.4026</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.4727</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38497.3946</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0065</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.0526</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2461.4663</v>
       </c>
       <c r="F6" s="1">
         <v>622.952</v>
       </c>
       <c r="G6" s="1">
-        <v>3100.6924</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49515.8865</v>
+        <v>39307.8938</v>
       </c>
       <c r="I6" s="1">
-        <v>50251.5133</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2065</v>
+        <v>39307.8938</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2505</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49515.8865</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.021</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.7562</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3084.4183</v>
       </c>
       <c r="F7" s="1">
         <v>634.6708</v>
       </c>
       <c r="G7" s="1">
-        <v>3735.3632</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58549.9498</v>
+        <v>48346.7153</v>
       </c>
       <c r="I7" s="1">
-        <v>60251.5133</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.13</v>
+        <v>48346.7153</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2105</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58549.9498</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0162</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.3605</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3719.0891</v>
       </c>
       <c r="F8" s="1">
         <v>651.0205</v>
       </c>
       <c r="G8" s="1">
-        <v>4386.3836</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>67027.451</v>
+        <v>56830.6573</v>
       </c>
       <c r="I8" s="1">
-        <v>70251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0158</v>
+        <v>56830.6573</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.133</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67027.451</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0222</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.2796</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4370.1096</v>
       </c>
       <c r="F9" s="1">
         <v>654.4674</v>
       </c>
       <c r="G9" s="1">
-        <v>5040.851</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>76622.44779999999</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9202</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0179</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76622.44779999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.4022</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5024.577</v>
       </c>
       <c r="F10" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5690.1089</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>87185.55590000001</v>
+        <v>76988.0763</v>
       </c>
       <c r="I10" s="1">
-        <v>90251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8611</v>
+        <v>76988.0763</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87185.55590000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.042</v>
       </c>
       <c r="E11" s="1">
+        <v>5673.8349</v>
+      </c>
+      <c r="F11" s="1">
+        <v>592.2611000000001</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>575.9871000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6266.096</v>
-      </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90548.1639</v>
       </c>
       <c r="I11" s="1">
-        <v>99491.4985</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.8777</v>
+        <v>90548.1639</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89501.053</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.7743</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9239.9853</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>760.0146999999999</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100760.0147</v>
+        <v>-9501.053</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0368</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.8442</v>
       </c>
       <c r="E12" s="1">
+        <v>6266.096</v>
+      </c>
+      <c r="F12" s="1">
+        <v>662.6366</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>679.1138</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6945.2098</v>
-      </c>
       <c r="H12" s="1">
-        <v>109470.3973</v>
+        <v>98766.20570000001</v>
       </c>
       <c r="I12" s="1">
-        <v>110251.5133</v>
+        <v>498.947</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8745</v>
+        <v>99265.15270000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.9589</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10760.0147</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109470.3973</v>
+        <v>-10498.947</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0116</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.9709</v>
       </c>
       <c r="E13" s="1">
+        <v>6928.7326</v>
+      </c>
+      <c r="F13" s="1">
+        <v>624.1374</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>607.6603</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7552.8701</v>
-      </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110083.7043</v>
       </c>
       <c r="I13" s="1">
-        <v>119956.3946</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8822</v>
+        <v>110083.7043</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109968.0367</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8713</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-9704.881299999999</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>295.1187</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120295.1187</v>
+        <v>-9968.036700000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.743</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7552.8701</v>
       </c>
       <c r="F14" s="1">
         <v>-7552.8701</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125802.1148</v>
       </c>
       <c r="I14" s="1">
-        <v>119956.3946</v>
+        <v>31.9633</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8822</v>
+        <v>125834.0781</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109968.0367</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5598</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125802.1148</v>
       </c>
-      <c r="O14" s="1">
-        <v>126097.2335</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126097.2335</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0322</v>
+        <v>0.0479</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.8917</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>558.9184</v>
       </c>
       <c r="G2" s="1">
-        <v>558.9184</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1883</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8917</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1883</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.2541</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>558.9184</v>
       </c>
       <c r="F3" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1174.1478</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>18985.7346</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0336</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.8917</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>251.5133</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9748.486699999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>251.5133</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19237.2479</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0356</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.4549</v>
       </c>
       <c r="E4" s="1">
+        <v>1174.1478</v>
+      </c>
+      <c r="F4" s="1">
+        <v>647.044</v>
+      </c>
+      <c r="G4" s="1">
         <v>30150.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>663.318</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1837.4658</v>
-      </c>
       <c r="H4" s="1">
-        <v>28250.4849</v>
+        <v>18052.1697</v>
       </c>
       <c r="I4" s="1">
-        <v>30251.5133</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4637</v>
+        <v>18052.1697</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0336</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10251.5133</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28250.4849</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0338</v>
+        <v>-0.0518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.6183</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1821.1917</v>
       </c>
       <c r="F5" s="1">
         <v>640.2745</v>
       </c>
       <c r="G5" s="1">
-        <v>2477.7403</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38497.3946</v>
+        <v>28296.4026</v>
       </c>
       <c r="I5" s="1">
-        <v>40251.5133</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2453</v>
+        <v>28296.4026</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.4727</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38497.3946</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0065</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.0526</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2461.4663</v>
       </c>
       <c r="F6" s="1">
         <v>622.952</v>
       </c>
       <c r="G6" s="1">
-        <v>3100.6924</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49515.8865</v>
+        <v>39307.8938</v>
       </c>
       <c r="I6" s="1">
-        <v>50251.5133</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2065</v>
+        <v>39307.8938</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2505</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49515.8865</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.021</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.7562</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3084.4183</v>
       </c>
       <c r="F7" s="1">
         <v>634.6708</v>
       </c>
       <c r="G7" s="1">
-        <v>3735.3632</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58549.9498</v>
+        <v>48346.7153</v>
       </c>
       <c r="I7" s="1">
-        <v>60251.5133</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.13</v>
+        <v>48346.7153</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2105</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58549.9498</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0162</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.3605</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3719.0891</v>
       </c>
       <c r="F8" s="1">
         <v>651.0205</v>
       </c>
       <c r="G8" s="1">
-        <v>4386.3836</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>67027.451</v>
+        <v>56830.6573</v>
       </c>
       <c r="I8" s="1">
-        <v>70251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0158</v>
+        <v>56830.6573</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.133</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67027.451</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0222</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.2796</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4370.1096</v>
       </c>
       <c r="F9" s="1">
         <v>654.4674</v>
       </c>
       <c r="G9" s="1">
-        <v>5040.851</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>76622.44779999999</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9202</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0179</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76622.44779999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.4022</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5024.577</v>
       </c>
       <c r="F10" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5690.1089</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87185.55590000001</v>
+        <v>76988.0763</v>
       </c>
       <c r="I10" s="1">
-        <v>90251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8611</v>
+        <v>76988.0763</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87185.55590000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.042</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5673.8349</v>
       </c>
       <c r="F11" s="1">
         <v>623.3637</v>
       </c>
       <c r="G11" s="1">
-        <v>6313.4726</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>100756.0778</v>
+        <v>90548.1639</v>
       </c>
       <c r="I11" s="1">
-        <v>100251.5133</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.879</v>
+        <v>90548.1639</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8623</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100756.0778</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0367</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.8442</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6297.1986</v>
       </c>
       <c r="F12" s="1">
         <v>631.1458</v>
       </c>
       <c r="G12" s="1">
-        <v>6944.6184</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>109461.0748</v>
+        <v>99256.444</v>
       </c>
       <c r="I12" s="1">
-        <v>110251.5133</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8758</v>
+        <v>99256.444</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8801</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109461.0748</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.9709</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6928.3444</v>
       </c>
       <c r="F13" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7570.7572</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>120284.1898</v>
+        <v>110077.5352</v>
       </c>
       <c r="I13" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8837</v>
+        <v>110077.5352</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8768</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120284.1898</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.743</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7554.4831</v>
       </c>
       <c r="F14" s="1">
-        <v>-7570.7572</v>
+        <v>-7554.4831</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125828.9822</v>
       </c>
       <c r="I14" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8837</v>
+        <v>125828.9822</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5609</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126100.0455</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126100.0455</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126100.0455</v>
+        <v>125828.9822</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0321</v>
+        <v>0.0479</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.8917</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>558.9184</v>
       </c>
       <c r="G2" s="1">
-        <v>558.9184</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1883</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8917</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1883</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.2541</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>558.9184</v>
       </c>
       <c r="F3" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1174.1478</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>18985.7346</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0336</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.8917</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>251.5133</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9748.486699999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>251.5133</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19237.2479</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0356</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.4549</v>
       </c>
       <c r="E4" s="1">
+        <v>1174.1478</v>
+      </c>
+      <c r="F4" s="1">
+        <v>647.044</v>
+      </c>
+      <c r="G4" s="1">
         <v>30301</v>
       </c>
-      <c r="F4" s="1">
-        <v>663.318</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1837.4658</v>
-      </c>
       <c r="H4" s="1">
-        <v>28250.4849</v>
+        <v>18052.1697</v>
       </c>
       <c r="I4" s="1">
-        <v>30251.5133</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4637</v>
+        <v>18052.1697</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0336</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10251.5133</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28250.4849</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0338</v>
+        <v>-0.0518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.6183</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1821.1917</v>
       </c>
       <c r="F5" s="1">
         <v>640.2745</v>
       </c>
       <c r="G5" s="1">
-        <v>2477.7403</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38497.3946</v>
+        <v>28296.4026</v>
       </c>
       <c r="I5" s="1">
-        <v>40251.5133</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2453</v>
+        <v>28296.4026</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.4727</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38497.3946</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0065</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.0526</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2461.4663</v>
       </c>
       <c r="F6" s="1">
         <v>622.952</v>
       </c>
       <c r="G6" s="1">
-        <v>3100.6924</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49515.8865</v>
+        <v>39307.8938</v>
       </c>
       <c r="I6" s="1">
-        <v>50251.5133</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2065</v>
+        <v>39307.8938</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2505</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49515.8865</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.021</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.7562</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3084.4183</v>
       </c>
       <c r="F7" s="1">
         <v>634.6708</v>
       </c>
       <c r="G7" s="1">
-        <v>3735.3632</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58549.9498</v>
+        <v>48346.7153</v>
       </c>
       <c r="I7" s="1">
-        <v>60251.5133</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.13</v>
+        <v>48346.7153</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2105</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58549.9498</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0162</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.3605</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3719.0891</v>
       </c>
       <c r="F8" s="1">
         <v>651.0205</v>
       </c>
       <c r="G8" s="1">
-        <v>4386.3836</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>67027.451</v>
+        <v>56830.6573</v>
       </c>
       <c r="I8" s="1">
-        <v>70251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0158</v>
+        <v>56830.6573</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.133</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67027.451</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0222</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.2796</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4370.1096</v>
       </c>
       <c r="F9" s="1">
         <v>654.4674</v>
       </c>
       <c r="G9" s="1">
-        <v>5040.851</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>76622.44779999999</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9202</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0179</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76622.44779999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.4022</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5024.577</v>
       </c>
       <c r="F10" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5690.1089</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87185.55590000001</v>
+        <v>76988.0763</v>
       </c>
       <c r="I10" s="1">
-        <v>90251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8611</v>
+        <v>76988.0763</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87185.55590000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.042</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5673.8349</v>
       </c>
       <c r="F11" s="1">
         <v>623.3637</v>
       </c>
       <c r="G11" s="1">
-        <v>6313.4726</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>100756.0778</v>
+        <v>90548.1639</v>
       </c>
       <c r="I11" s="1">
-        <v>100251.5133</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.879</v>
+        <v>90548.1639</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8623</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100756.0778</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0367</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.8442</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6297.1986</v>
       </c>
       <c r="F12" s="1">
         <v>631.1458</v>
       </c>
       <c r="G12" s="1">
-        <v>6944.6184</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109461.0748</v>
+        <v>99256.444</v>
       </c>
       <c r="I12" s="1">
-        <v>110251.5133</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8758</v>
+        <v>99256.444</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8801</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109461.0748</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.9709</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6928.3444</v>
       </c>
       <c r="F13" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7570.7572</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120284.1898</v>
+        <v>110077.5352</v>
       </c>
       <c r="I13" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8837</v>
+        <v>110077.5352</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8768</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120284.1898</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.743</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7554.4831</v>
       </c>
       <c r="F14" s="1">
-        <v>-7570.7572</v>
+        <v>-7554.4831</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125828.9822</v>
       </c>
       <c r="I14" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8837</v>
+        <v>125828.9822</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5609</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126100.0455</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126100.0455</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126100.0455</v>
+        <v>125828.9822</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0321</v>
+        <v>0.0479</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.8917</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>558.9184</v>
       </c>
       <c r="G2" s="1">
-        <v>558.9184</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1883</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.8917</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1883</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.2541</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>558.9184</v>
       </c>
       <c r="F3" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1174.1478</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>18985.7346</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.0336</v>
+        <v>9037.598400000001</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17.8917</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
-        <v>251.5133</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9748.486699999999</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>251.5133</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>19237.2479</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0356</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.4549</v>
       </c>
       <c r="E4" s="1">
+        <v>1174.1478</v>
+      </c>
+      <c r="F4" s="1">
+        <v>647.044</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>663.318</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1837.4658</v>
-      </c>
       <c r="H4" s="1">
-        <v>28250.4849</v>
+        <v>18052.1697</v>
       </c>
       <c r="I4" s="1">
-        <v>30251.5133</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4637</v>
+        <v>18052.1697</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.0336</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10251.5133</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>28250.4849</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0338</v>
+        <v>-0.0518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.6183</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1821.1917</v>
       </c>
       <c r="F5" s="1">
         <v>640.2745</v>
       </c>
       <c r="G5" s="1">
-        <v>2477.7403</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38497.3946</v>
+        <v>28296.4026</v>
       </c>
       <c r="I5" s="1">
-        <v>40251.5133</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.2453</v>
+        <v>28296.4026</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.4727</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>38497.3946</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0065</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.0526</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2461.4663</v>
       </c>
       <c r="F6" s="1">
         <v>622.952</v>
       </c>
       <c r="G6" s="1">
-        <v>3100.6924</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49515.8865</v>
+        <v>39307.8938</v>
       </c>
       <c r="I6" s="1">
-        <v>50251.5133</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2065</v>
+        <v>39307.8938</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2505</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49515.8865</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.021</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.7562</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3084.4183</v>
       </c>
       <c r="F7" s="1">
         <v>634.6708</v>
       </c>
       <c r="G7" s="1">
-        <v>3735.3632</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58549.9498</v>
+        <v>48346.7153</v>
       </c>
       <c r="I7" s="1">
-        <v>60251.5133</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.13</v>
+        <v>48346.7153</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2105</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58549.9498</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0162</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.3605</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3719.0891</v>
       </c>
       <c r="F8" s="1">
         <v>651.0205</v>
       </c>
       <c r="G8" s="1">
-        <v>4386.3836</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>67027.451</v>
+        <v>56830.6573</v>
       </c>
       <c r="I8" s="1">
-        <v>70251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.0158</v>
+        <v>56830.6573</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.133</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>67027.451</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0222</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.2796</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4370.1096</v>
       </c>
       <c r="F9" s="1">
         <v>654.4674</v>
       </c>
       <c r="G9" s="1">
-        <v>5040.851</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>76622.44779999999</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.9202</v>
+        <v>66426.97719999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0179</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76622.44779999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.4022</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5024.577</v>
       </c>
       <c r="F10" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5690.1089</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87185.55590000001</v>
+        <v>76988.0763</v>
       </c>
       <c r="I10" s="1">
-        <v>90251.51330000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.8611</v>
+        <v>76988.0763</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>87185.55590000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.042</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5673.8349</v>
       </c>
       <c r="F11" s="1">
         <v>623.3637</v>
       </c>
       <c r="G11" s="1">
-        <v>6313.4726</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>100756.0778</v>
+        <v>90548.1639</v>
       </c>
       <c r="I11" s="1">
-        <v>100251.5133</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.879</v>
+        <v>90548.1639</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.8623</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>100756.0778</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0367</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.8442</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6297.1986</v>
       </c>
       <c r="F12" s="1">
         <v>631.1458</v>
       </c>
       <c r="G12" s="1">
-        <v>6944.6184</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109461.0748</v>
+        <v>99256.444</v>
       </c>
       <c r="I12" s="1">
-        <v>110251.5133</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.8758</v>
+        <v>99256.444</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8801</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>109461.0748</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0117</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.9709</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6928.3444</v>
       </c>
       <c r="F13" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7570.7572</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>120284.1898</v>
+        <v>110077.5352</v>
       </c>
       <c r="I13" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.8837</v>
+        <v>110077.5352</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.8768</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>120284.1898</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.743</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7554.4831</v>
       </c>
       <c r="F14" s="1">
-        <v>-7570.7572</v>
+        <v>-7554.4831</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125828.9822</v>
       </c>
       <c r="I14" s="1">
-        <v>120251.5133</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.8837</v>
+        <v>125828.9822</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.5609</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126100.0455</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126100.0455</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126100.0455</v>
+        <v>125828.9822</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0321</v>
+        <v>0.0479</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.6979</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.8842</v>
+        <v>14.5609</v>
       </c>
       <c r="D3" s="1">
-        <v>15.8822</v>
+        <v>14.5598</v>
       </c>
       <c r="E3" s="1">
-        <v>15.8837</v>
+        <v>14.5609</v>
       </c>
       <c r="F3" s="1">
-        <v>15.8837</v>
+        <v>14.5609</v>
       </c>
       <c r="G3" s="1">
-        <v>15.8837</v>
+        <v>14.5609</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0576</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0794</v>
+        <v>-0.0736</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0793</v>
+        <v>-0.0735</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0793</v>
+        <v>-0.0736</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0793</v>
+        <v>-0.0736</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0793</v>
+        <v>-0.0736</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1294</v>
       </c>
       <c r="C5" s="3">
-        <v>0.07580000000000001</v>
+        <v>0.1327</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0759</v>
+        <v>0.1327</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0759</v>
+        <v>0.1327</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0759</v>
+        <v>0.1327</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0759</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.6021</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.3157</v>
+        <v>-0.7077</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.3118</v>
+        <v>-0.7074</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.3128</v>
+        <v>-0.7077</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.3128</v>
+        <v>-0.7077</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.3128</v>
+        <v>-0.7077</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0953</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0953</v>
+        <v>0.091</v>
       </c>
       <c r="E7" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>251.5133</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>251.5133</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>251.5133</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>251.5133</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>251.5133</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
